--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,45 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Haras El Hodood</t>
+  </si>
+  <si>
+    <t>El Geish</t>
+  </si>
+  <si>
+    <t>Smouha SC</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['34', '45+4', '46']</t>
+  </si>
+  <si>
+    <t>['52', '87']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +821,418 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7729534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45595.45833333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>1.91</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1.53</v>
+      </c>
+      <c r="U2">
+        <v>2.38</v>
+      </c>
+      <c r="V2">
+        <v>3.75</v>
+      </c>
+      <c r="W2">
+        <v>1.25</v>
+      </c>
+      <c r="X2">
+        <v>8.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.05</v>
+      </c>
+      <c r="Z2">
+        <v>3.25</v>
+      </c>
+      <c r="AA2">
+        <v>2.88</v>
+      </c>
+      <c r="AB2">
+        <v>2.25</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1.5</v>
+      </c>
+      <c r="AF2">
+        <v>2.22</v>
+      </c>
+      <c r="AG2">
+        <v>2.4</v>
+      </c>
+      <c r="AH2">
+        <v>1.5</v>
+      </c>
+      <c r="AI2">
+        <v>2.2</v>
+      </c>
+      <c r="AJ2">
+        <v>1.62</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>3</v>
+      </c>
+      <c r="AV2">
+        <v>6</v>
+      </c>
+      <c r="AW2">
+        <v>4</v>
+      </c>
+      <c r="AX2">
+        <v>5</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
+      </c>
+      <c r="AZ2">
+        <v>11</v>
+      </c>
+      <c r="BA2">
+        <v>5</v>
+      </c>
+      <c r="BB2">
+        <v>4</v>
+      </c>
+      <c r="BC2">
+        <v>9</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7729535</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45595.58333333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
+        <v>2.8</v>
+      </c>
+      <c r="T3">
+        <v>1.67</v>
+      </c>
+      <c r="U3">
+        <v>2.11</v>
+      </c>
+      <c r="V3">
+        <v>3.85</v>
+      </c>
+      <c r="W3">
+        <v>1.22</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>1.04</v>
+      </c>
+      <c r="Z3">
+        <v>4.5</v>
+      </c>
+      <c r="AA3">
+        <v>2.88</v>
+      </c>
+      <c r="AB3">
+        <v>1.95</v>
+      </c>
+      <c r="AC3">
+        <v>1.11</v>
+      </c>
+      <c r="AD3">
+        <v>5.5</v>
+      </c>
+      <c r="AE3">
+        <v>1.57</v>
+      </c>
+      <c r="AF3">
+        <v>2.25</v>
+      </c>
+      <c r="AG3">
+        <v>2.88</v>
+      </c>
+      <c r="AH3">
+        <v>1.36</v>
+      </c>
+      <c r="AI3">
+        <v>2.4</v>
+      </c>
+      <c r="AJ3">
+        <v>1.5</v>
+      </c>
+      <c r="AK3">
+        <v>1.68</v>
+      </c>
+      <c r="AL3">
+        <v>1.35</v>
+      </c>
+      <c r="AM3">
+        <v>1.2</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <v>5</v>
+      </c>
+      <c r="AZ3">
+        <v>10</v>
+      </c>
+      <c r="BA3">
+        <v>8</v>
+      </c>
+      <c r="BB3">
+        <v>8</v>
+      </c>
+      <c r="BC3">
+        <v>16</v>
+      </c>
+      <c r="BD3">
+        <v>2.68</v>
+      </c>
+      <c r="BE3">
+        <v>6.25</v>
+      </c>
+      <c r="BF3">
+        <v>1.71</v>
+      </c>
+      <c r="BG3">
+        <v>1.31</v>
+      </c>
+      <c r="BH3">
+        <v>2.82</v>
+      </c>
+      <c r="BI3">
+        <v>1.58</v>
+      </c>
+      <c r="BJ3">
+        <v>2.06</v>
+      </c>
+      <c r="BK3">
+        <v>2.04</v>
+      </c>
+      <c r="BL3">
+        <v>1.66</v>
+      </c>
+      <c r="BM3">
+        <v>2.65</v>
+      </c>
+      <c r="BN3">
+        <v>1.35</v>
+      </c>
+      <c r="BO3">
+        <v>3.7</v>
+      </c>
+      <c r="BP3">
+        <v>1.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,22 +232,67 @@
     <t>El Geish</t>
   </si>
   <si>
+    <t>El Gounah</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Pharco</t>
+  </si>
+  <si>
+    <t>Pyramids FC</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
     <t>Smouha SC</t>
   </si>
   <si>
     <t>Al Masry</t>
   </si>
   <si>
+    <t>Masr</t>
+  </si>
+  <si>
+    <t>ENPPI</t>
+  </si>
+  <si>
+    <t>Al Ittihad</t>
+  </si>
+  <si>
+    <t>Petrojet</t>
+  </si>
+  <si>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['38', '53', '90+8']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
     <t>['52', '87']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['50', '76']</t>
   </si>
 </sst>
 </file>
@@ -609,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +889,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -865,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -961,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2">
         <v>6</v>
       </c>
       <c r="AW2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1050,7 +1095,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1071,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1167,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>2</v>
+      </c>
+      <c r="AX3">
+        <v>9</v>
+      </c>
+      <c r="AY3">
         <v>6</v>
       </c>
-      <c r="AW3">
-        <v>3</v>
-      </c>
-      <c r="AX3">
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <v>5</v>
-      </c>
       <c r="AZ3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA3">
         <v>8</v>
@@ -1230,6 +1275,1036 @@
         <v>3.7</v>
       </c>
       <c r="BP3">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7729536</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45596.45833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4">
+        <v>4.33</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>2.75</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+      <c r="U4">
+        <v>2.5</v>
+      </c>
+      <c r="V4">
+        <v>3.4</v>
+      </c>
+      <c r="W4">
+        <v>1.3</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>1.06</v>
+      </c>
+      <c r="Z4">
+        <v>3.6</v>
+      </c>
+      <c r="AA4">
+        <v>3.1</v>
+      </c>
+      <c r="AB4">
+        <v>2.05</v>
+      </c>
+      <c r="AC4">
+        <v>1.11</v>
+      </c>
+      <c r="AD4">
+        <v>7.01</v>
+      </c>
+      <c r="AE4">
+        <v>1.44</v>
+      </c>
+      <c r="AF4">
+        <v>2.83</v>
+      </c>
+      <c r="AG4">
+        <v>2.35</v>
+      </c>
+      <c r="AH4">
+        <v>1.57</v>
+      </c>
+      <c r="AI4">
+        <v>2.1</v>
+      </c>
+      <c r="AJ4">
+        <v>1.67</v>
+      </c>
+      <c r="AK4">
+        <v>1.7</v>
+      </c>
+      <c r="AL4">
+        <v>1.28</v>
+      </c>
+      <c r="AM4">
+        <v>1.25</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>10</v>
+      </c>
+      <c r="AZ4">
+        <v>10</v>
+      </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>9</v>
+      </c>
+      <c r="BD4">
+        <v>2.44</v>
+      </c>
+      <c r="BE4">
+        <v>6.3</v>
+      </c>
+      <c r="BF4">
+        <v>1.82</v>
+      </c>
+      <c r="BG4">
+        <v>1.25</v>
+      </c>
+      <c r="BH4">
+        <v>3.14</v>
+      </c>
+      <c r="BI4">
+        <v>1.48</v>
+      </c>
+      <c r="BJ4">
+        <v>2.26</v>
+      </c>
+      <c r="BK4">
+        <v>1.87</v>
+      </c>
+      <c r="BL4">
+        <v>1.79</v>
+      </c>
+      <c r="BM4">
+        <v>2.39</v>
+      </c>
+      <c r="BN4">
+        <v>1.43</v>
+      </c>
+      <c r="BO4">
+        <v>3.22</v>
+      </c>
+      <c r="BP4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7729537</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45596.58333333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1.83</v>
+      </c>
+      <c r="S5">
+        <v>4.33</v>
+      </c>
+      <c r="T5">
+        <v>1.61</v>
+      </c>
+      <c r="U5">
+        <v>2.21</v>
+      </c>
+      <c r="V5">
+        <v>3.75</v>
+      </c>
+      <c r="W5">
+        <v>1.22</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>1.05</v>
+      </c>
+      <c r="Z5">
+        <v>2.2</v>
+      </c>
+      <c r="AA5">
+        <v>2.9</v>
+      </c>
+      <c r="AB5">
+        <v>3.6</v>
+      </c>
+      <c r="AC5">
+        <v>1.08</v>
+      </c>
+      <c r="AD5">
+        <v>6.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.5</v>
+      </c>
+      <c r="AF5">
+        <v>2.4</v>
+      </c>
+      <c r="AG5">
+        <v>2.75</v>
+      </c>
+      <c r="AH5">
+        <v>1.4</v>
+      </c>
+      <c r="AI5">
+        <v>2.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.6</v>
+      </c>
+      <c r="AK5">
+        <v>1.28</v>
+      </c>
+      <c r="AL5">
+        <v>1.3</v>
+      </c>
+      <c r="AM5">
+        <v>1.63</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>7</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>8</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>19</v>
+      </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
+      <c r="BA5">
+        <v>10</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>13</v>
+      </c>
+      <c r="BD5">
+        <v>1.5</v>
+      </c>
+      <c r="BE5">
+        <v>6.6</v>
+      </c>
+      <c r="BF5">
+        <v>3.34</v>
+      </c>
+      <c r="BG5">
+        <v>1.33</v>
+      </c>
+      <c r="BH5">
+        <v>2.72</v>
+      </c>
+      <c r="BI5">
+        <v>1.66</v>
+      </c>
+      <c r="BJ5">
+        <v>2.04</v>
+      </c>
+      <c r="BK5">
+        <v>2.06</v>
+      </c>
+      <c r="BL5">
+        <v>1.58</v>
+      </c>
+      <c r="BM5">
+        <v>2.78</v>
+      </c>
+      <c r="BN5">
+        <v>1.32</v>
+      </c>
+      <c r="BO5">
+        <v>3.88</v>
+      </c>
+      <c r="BP5">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7729538</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45597.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6">
+        <v>3.6</v>
+      </c>
+      <c r="R6">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>3.75</v>
+      </c>
+      <c r="T6">
+        <v>1.62</v>
+      </c>
+      <c r="U6">
+        <v>2.2</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1.22</v>
+      </c>
+      <c r="X6">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>1.04</v>
+      </c>
+      <c r="Z6">
+        <v>2.7</v>
+      </c>
+      <c r="AA6">
+        <v>2.7</v>
+      </c>
+      <c r="AB6">
+        <v>2.88</v>
+      </c>
+      <c r="AC6">
+        <v>1.15</v>
+      </c>
+      <c r="AD6">
+        <v>5.54</v>
+      </c>
+      <c r="AE6">
+        <v>1.5</v>
+      </c>
+      <c r="AF6">
+        <v>2.3</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>1.36</v>
+      </c>
+      <c r="AI6">
+        <v>2.25</v>
+      </c>
+      <c r="AJ6">
+        <v>1.57</v>
+      </c>
+      <c r="AK6">
+        <v>1.4</v>
+      </c>
+      <c r="AL6">
+        <v>1.36</v>
+      </c>
+      <c r="AM6">
+        <v>1.4</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>5</v>
+      </c>
+      <c r="AY6">
+        <v>11</v>
+      </c>
+      <c r="AZ6">
+        <v>11</v>
+      </c>
+      <c r="BA6">
+        <v>5</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>8</v>
+      </c>
+      <c r="BD6">
+        <v>1.96</v>
+      </c>
+      <c r="BE6">
+        <v>5.9</v>
+      </c>
+      <c r="BF6">
+        <v>2.28</v>
+      </c>
+      <c r="BG6">
+        <v>1.48</v>
+      </c>
+      <c r="BH6">
+        <v>2.26</v>
+      </c>
+      <c r="BI6">
+        <v>1.91</v>
+      </c>
+      <c r="BJ6">
+        <v>1.76</v>
+      </c>
+      <c r="BK6">
+        <v>2.48</v>
+      </c>
+      <c r="BL6">
+        <v>1.4</v>
+      </c>
+      <c r="BM6">
+        <v>3.44</v>
+      </c>
+      <c r="BN6">
+        <v>1.21</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7729539</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45597.5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7">
+        <v>1.62</v>
+      </c>
+      <c r="R7">
+        <v>2.4</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>1.4</v>
+      </c>
+      <c r="U7">
+        <v>2.75</v>
+      </c>
+      <c r="V7">
+        <v>2.75</v>
+      </c>
+      <c r="W7">
+        <v>1.4</v>
+      </c>
+      <c r="X7">
+        <v>6.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>1.2</v>
+      </c>
+      <c r="AA7">
+        <v>4.75</v>
+      </c>
+      <c r="AB7">
+        <v>17</v>
+      </c>
+      <c r="AC7">
+        <v>1.02</v>
+      </c>
+      <c r="AD7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>1.25</v>
+      </c>
+      <c r="AF7">
+        <v>3.14</v>
+      </c>
+      <c r="AG7">
+        <v>1.8</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.36</v>
+      </c>
+      <c r="AK7">
+        <v>1.01</v>
+      </c>
+      <c r="AL7">
+        <v>1.09</v>
+      </c>
+      <c r="AM7">
+        <v>4.2</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>8</v>
+      </c>
+      <c r="AX7">
+        <v>6</v>
+      </c>
+      <c r="AY7">
+        <v>18</v>
+      </c>
+      <c r="AZ7">
+        <v>10</v>
+      </c>
+      <c r="BA7">
+        <v>6</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>11</v>
+      </c>
+      <c r="BD7">
+        <v>1.12</v>
+      </c>
+      <c r="BE7">
+        <v>12</v>
+      </c>
+      <c r="BF7">
+        <v>7.2</v>
+      </c>
+      <c r="BG7">
+        <v>1.27</v>
+      </c>
+      <c r="BH7">
+        <v>3.04</v>
+      </c>
+      <c r="BI7">
+        <v>1.52</v>
+      </c>
+      <c r="BJ7">
+        <v>2.18</v>
+      </c>
+      <c r="BK7">
+        <v>1.93</v>
+      </c>
+      <c r="BL7">
+        <v>1.74</v>
+      </c>
+      <c r="BM7">
+        <v>2.45</v>
+      </c>
+      <c r="BN7">
+        <v>1.41</v>
+      </c>
+      <c r="BO7">
+        <v>3.35</v>
+      </c>
+      <c r="BP7">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7729540</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45597.625</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8">
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1.4</v>
+      </c>
+      <c r="U8">
+        <v>2.75</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>1.08</v>
+      </c>
+      <c r="Z8">
+        <v>1.91</v>
+      </c>
+      <c r="AA8">
+        <v>3.5</v>
+      </c>
+      <c r="AB8">
+        <v>3.8</v>
+      </c>
+      <c r="AC8">
+        <v>1.01</v>
+      </c>
+      <c r="AD8">
+        <v>7.8</v>
+      </c>
+      <c r="AE8">
+        <v>1.34</v>
+      </c>
+      <c r="AF8">
+        <v>3.3</v>
+      </c>
+      <c r="AG8">
+        <v>1.91</v>
+      </c>
+      <c r="AH8">
+        <v>1.8</v>
+      </c>
+      <c r="AI8">
+        <v>1.83</v>
+      </c>
+      <c r="AJ8">
+        <v>1.83</v>
+      </c>
+      <c r="AK8">
+        <v>1.18</v>
+      </c>
+      <c r="AL8">
+        <v>1.25</v>
+      </c>
+      <c r="AM8">
+        <v>1.85</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>3</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AX8">
+        <v>8</v>
+      </c>
+      <c r="AY8">
+        <v>10</v>
+      </c>
+      <c r="AZ8">
+        <v>13</v>
+      </c>
+      <c r="BA8">
+        <v>3</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1.78</v>
+      </c>
+      <c r="BE8">
+        <v>6.2</v>
+      </c>
+      <c r="BF8">
+        <v>2.53</v>
+      </c>
+      <c r="BG8">
+        <v>1.3</v>
+      </c>
+      <c r="BH8">
+        <v>2.88</v>
+      </c>
+      <c r="BI8">
+        <v>1.57</v>
+      </c>
+      <c r="BJ8">
+        <v>2.08</v>
+      </c>
+      <c r="BK8">
+        <v>2.2</v>
+      </c>
+      <c r="BL8">
+        <v>1.67</v>
+      </c>
+      <c r="BM8">
+        <v>2.61</v>
+      </c>
+      <c r="BN8">
+        <v>1.36</v>
+      </c>
+      <c r="BO8">
+        <v>3.65</v>
+      </c>
+      <c r="BP8">
         <v>1.18</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,6 +247,12 @@
     <t>Zamalek</t>
   </si>
   <si>
+    <t>Ismaily SC</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
     <t>Smouha SC</t>
   </si>
   <si>
@@ -268,6 +274,12 @@
     <t>National Bank of Egypt</t>
   </si>
   <si>
+    <t>Ghazl El Mehalla</t>
+  </si>
+  <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>['38', '53', '90+8']</t>
   </si>
   <si>
+    <t>['4', '45+4', '46', '60', '72']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -293,6 +308,9 @@
   </si>
   <si>
     <t>['50', '76']</t>
+  </si>
+  <si>
+    <t>['24', '79']</t>
   </si>
 </sst>
 </file>
@@ -654,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +907,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -910,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1095,7 +1113,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1116,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1301,7 +1319,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1322,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>4.33</v>
@@ -1507,7 +1525,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1528,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1713,7 +1731,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1734,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -1851,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="BB6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD6">
         <v>1.96</v>
@@ -1919,7 +1937,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1940,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2057,10 +2075,10 @@
         <v>6</v>
       </c>
       <c r="BB7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD7">
         <v>1.12</v>
@@ -2125,7 +2143,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2146,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2306,6 +2324,418 @@
       </c>
       <c r="BP8">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7729541</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>2.75</v>
+      </c>
+      <c r="R9">
+        <v>1.91</v>
+      </c>
+      <c r="S9">
+        <v>4.5</v>
+      </c>
+      <c r="T9">
+        <v>1.57</v>
+      </c>
+      <c r="U9">
+        <v>2.25</v>
+      </c>
+      <c r="V9">
+        <v>3.75</v>
+      </c>
+      <c r="W9">
+        <v>1.25</v>
+      </c>
+      <c r="X9">
+        <v>8.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.05</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>3.1</v>
+      </c>
+      <c r="AB9">
+        <v>3.75</v>
+      </c>
+      <c r="AC9">
+        <v>1.12</v>
+      </c>
+      <c r="AD9">
+        <v>6.51</v>
+      </c>
+      <c r="AE9">
+        <v>1.49</v>
+      </c>
+      <c r="AF9">
+        <v>2.45</v>
+      </c>
+      <c r="AG9">
+        <v>2.38</v>
+      </c>
+      <c r="AH9">
+        <v>1.53</v>
+      </c>
+      <c r="AI9">
+        <v>2.2</v>
+      </c>
+      <c r="AJ9">
+        <v>1.62</v>
+      </c>
+      <c r="AK9">
+        <v>1.25</v>
+      </c>
+      <c r="AL9">
+        <v>1.3</v>
+      </c>
+      <c r="AM9">
+        <v>1.65</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>4</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>7</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
+        <v>15</v>
+      </c>
+      <c r="AZ9">
+        <v>10</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>5</v>
+      </c>
+      <c r="BD9">
+        <v>1.53</v>
+      </c>
+      <c r="BE9">
+        <v>6.6</v>
+      </c>
+      <c r="BF9">
+        <v>3.2</v>
+      </c>
+      <c r="BG9">
+        <v>1.28</v>
+      </c>
+      <c r="BH9">
+        <v>2.97</v>
+      </c>
+      <c r="BI9">
+        <v>1.53</v>
+      </c>
+      <c r="BJ9">
+        <v>2.16</v>
+      </c>
+      <c r="BK9">
+        <v>1.95</v>
+      </c>
+      <c r="BL9">
+        <v>1.72</v>
+      </c>
+      <c r="BM9">
+        <v>2.51</v>
+      </c>
+      <c r="BN9">
+        <v>1.39</v>
+      </c>
+      <c r="BO9">
+        <v>3.44</v>
+      </c>
+      <c r="BP9">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7729542</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45598.625</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10">
+        <v>2.2</v>
+      </c>
+      <c r="R10">
+        <v>2.2</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>1.35</v>
+      </c>
+      <c r="U10">
+        <v>3.04</v>
+      </c>
+      <c r="V10">
+        <v>2.62</v>
+      </c>
+      <c r="W10">
+        <v>1.45</v>
+      </c>
+      <c r="X10">
+        <v>6.4</v>
+      </c>
+      <c r="Y10">
+        <v>1.1</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>4.2</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>1.22</v>
+      </c>
+      <c r="AF10">
+        <v>4.2</v>
+      </c>
+      <c r="AG10">
+        <v>1.75</v>
+      </c>
+      <c r="AH10">
+        <v>1.95</v>
+      </c>
+      <c r="AI10">
+        <v>1.91</v>
+      </c>
+      <c r="AJ10">
+        <v>1.8</v>
+      </c>
+      <c r="AK10">
+        <v>1.07</v>
+      </c>
+      <c r="AL10">
+        <v>1.17</v>
+      </c>
+      <c r="AM10">
+        <v>2.6</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>9</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>6</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>17</v>
+      </c>
+      <c r="AZ10">
+        <v>15</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>6</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>1.37</v>
+      </c>
+      <c r="BE10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>3.66</v>
+      </c>
+      <c r="BG10">
+        <v>1.29</v>
+      </c>
+      <c r="BH10">
+        <v>3.3</v>
+      </c>
+      <c r="BI10">
+        <v>1.48</v>
+      </c>
+      <c r="BJ10">
+        <v>2.59</v>
+      </c>
+      <c r="BK10">
+        <v>2.38</v>
+      </c>
+      <c r="BL10">
+        <v>1.99</v>
+      </c>
+      <c r="BM10">
+        <v>2.27</v>
+      </c>
+      <c r="BN10">
+        <v>1.6</v>
+      </c>
+      <c r="BO10">
+        <v>2.8</v>
+      </c>
+      <c r="BP10">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,30 +253,30 @@
     <t>Al Ahly</t>
   </si>
   <si>
+    <t>Ghazl El Mehalla</t>
+  </si>
+  <si>
+    <t>Al Ittihad</t>
+  </si>
+  <si>
+    <t>Masr</t>
+  </si>
+  <si>
     <t>Smouha SC</t>
   </si>
   <si>
+    <t>Petrojet</t>
+  </si>
+  <si>
+    <t>ENPPI</t>
+  </si>
+  <si>
     <t>Al Masry</t>
   </si>
   <si>
-    <t>Masr</t>
-  </si>
-  <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
-    <t>Petrojet</t>
-  </si>
-  <si>
     <t>National Bank of Egypt</t>
   </si>
   <si>
-    <t>Ghazl El Mehalla</t>
-  </si>
-  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
@@ -295,6 +295,18 @@
     <t>['4', '45+4', '46', '60', '72']</t>
   </si>
   <si>
+    <t>['79', '90+5']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -311,6 +323,21 @@
   </si>
   <si>
     <t>['24', '79']</t>
+  </si>
+  <si>
+    <t>['14', '70', '88']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['2', '85']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['3', '34']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +934,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -931,7 +958,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1113,7 +1140,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1137,7 +1164,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1525,7 +1552,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1731,7 +1758,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1755,7 +1782,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -1937,7 +1964,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1961,7 +1988,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2143,7 +2170,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2167,7 +2194,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2349,7 +2376,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2579,7 +2606,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -2736,6 +2763,1242 @@
       </c>
       <c r="BP10">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7729543</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45603.5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11">
+        <v>3.6</v>
+      </c>
+      <c r="R11">
+        <v>1.91</v>
+      </c>
+      <c r="S11">
+        <v>3.25</v>
+      </c>
+      <c r="T11">
+        <v>1.53</v>
+      </c>
+      <c r="U11">
+        <v>2.38</v>
+      </c>
+      <c r="V11">
+        <v>3.5</v>
+      </c>
+      <c r="W11">
+        <v>1.29</v>
+      </c>
+      <c r="X11">
+        <v>8.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.05</v>
+      </c>
+      <c r="Z11">
+        <v>2.8</v>
+      </c>
+      <c r="AA11">
+        <v>2.9</v>
+      </c>
+      <c r="AB11">
+        <v>2.4</v>
+      </c>
+      <c r="AC11">
+        <v>1.09</v>
+      </c>
+      <c r="AD11">
+        <v>6.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.48</v>
+      </c>
+      <c r="AF11">
+        <v>2.55</v>
+      </c>
+      <c r="AG11">
+        <v>2.63</v>
+      </c>
+      <c r="AH11">
+        <v>1.44</v>
+      </c>
+      <c r="AI11">
+        <v>2.2</v>
+      </c>
+      <c r="AJ11">
+        <v>1.62</v>
+      </c>
+      <c r="AK11">
+        <v>1.38</v>
+      </c>
+      <c r="AL11">
+        <v>1.33</v>
+      </c>
+      <c r="AM11">
+        <v>1.5</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>12</v>
+      </c>
+      <c r="AV11">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>7</v>
+      </c>
+      <c r="AX11">
+        <v>3</v>
+      </c>
+      <c r="AY11">
+        <v>24</v>
+      </c>
+      <c r="AZ11">
+        <v>13</v>
+      </c>
+      <c r="BA11">
+        <v>8</v>
+      </c>
+      <c r="BB11">
+        <v>6</v>
+      </c>
+      <c r="BC11">
+        <v>14</v>
+      </c>
+      <c r="BD11">
+        <v>1.95</v>
+      </c>
+      <c r="BE11">
+        <v>6.55</v>
+      </c>
+      <c r="BF11">
+        <v>2.21</v>
+      </c>
+      <c r="BG11">
+        <v>1.38</v>
+      </c>
+      <c r="BH11">
+        <v>2.8</v>
+      </c>
+      <c r="BI11">
+        <v>1.67</v>
+      </c>
+      <c r="BJ11">
+        <v>2.18</v>
+      </c>
+      <c r="BK11">
+        <v>2.08</v>
+      </c>
+      <c r="BL11">
+        <v>1.72</v>
+      </c>
+      <c r="BM11">
+        <v>2.62</v>
+      </c>
+      <c r="BN11">
+        <v>1.42</v>
+      </c>
+      <c r="BO11">
+        <v>3.4</v>
+      </c>
+      <c r="BP11">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7729544</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45603.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12">
+        <v>2.38</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
+        <v>2.63</v>
+      </c>
+      <c r="V12">
+        <v>3.25</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>7.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.07</v>
+      </c>
+      <c r="Z12">
+        <v>1.7</v>
+      </c>
+      <c r="AA12">
+        <v>3.25</v>
+      </c>
+      <c r="AB12">
+        <v>4.75</v>
+      </c>
+      <c r="AC12">
+        <v>1.02</v>
+      </c>
+      <c r="AD12">
+        <v>7.4</v>
+      </c>
+      <c r="AE12">
+        <v>1.41</v>
+      </c>
+      <c r="AF12">
+        <v>2.93</v>
+      </c>
+      <c r="AG12">
+        <v>2.3</v>
+      </c>
+      <c r="AH12">
+        <v>1.6</v>
+      </c>
+      <c r="AI12">
+        <v>2.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.62</v>
+      </c>
+      <c r="AK12">
+        <v>1.14</v>
+      </c>
+      <c r="AL12">
+        <v>1.25</v>
+      </c>
+      <c r="AM12">
+        <v>1.95</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>6</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>2</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>4</v>
+      </c>
+      <c r="BD12">
+        <v>1.55</v>
+      </c>
+      <c r="BE12">
+        <v>7.8</v>
+      </c>
+      <c r="BF12">
+        <v>2.91</v>
+      </c>
+      <c r="BG12">
+        <v>1.4</v>
+      </c>
+      <c r="BH12">
+        <v>2.48</v>
+      </c>
+      <c r="BI12">
+        <v>1.8</v>
+      </c>
+      <c r="BJ12">
+        <v>1.91</v>
+      </c>
+      <c r="BK12">
+        <v>2.22</v>
+      </c>
+      <c r="BL12">
+        <v>1.5</v>
+      </c>
+      <c r="BM12">
+        <v>3.02</v>
+      </c>
+      <c r="BN12">
+        <v>1.27</v>
+      </c>
+      <c r="BO12">
+        <v>3.8</v>
+      </c>
+      <c r="BP12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7729545</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45603.625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13">
+        <v>5.5</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>2.1</v>
+      </c>
+      <c r="T13">
+        <v>1.36</v>
+      </c>
+      <c r="U13">
+        <v>2.9</v>
+      </c>
+      <c r="V13">
+        <v>2.6</v>
+      </c>
+      <c r="W13">
+        <v>1.44</v>
+      </c>
+      <c r="X13">
+        <v>5.8</v>
+      </c>
+      <c r="Y13">
+        <v>1.11</v>
+      </c>
+      <c r="Z13">
+        <v>5.5</v>
+      </c>
+      <c r="AA13">
+        <v>3.7</v>
+      </c>
+      <c r="AB13">
+        <v>1.6</v>
+      </c>
+      <c r="AC13">
+        <v>1.04</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>1.22</v>
+      </c>
+      <c r="AF13">
+        <v>4.1</v>
+      </c>
+      <c r="AG13">
+        <v>1.85</v>
+      </c>
+      <c r="AH13">
+        <v>1.95</v>
+      </c>
+      <c r="AI13">
+        <v>1.83</v>
+      </c>
+      <c r="AJ13">
+        <v>1.83</v>
+      </c>
+      <c r="AK13">
+        <v>2.45</v>
+      </c>
+      <c r="AL13">
+        <v>1.18</v>
+      </c>
+      <c r="AM13">
+        <v>1.09</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>10</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>8</v>
+      </c>
+      <c r="BD13">
+        <v>2.69</v>
+      </c>
+      <c r="BE13">
+        <v>7.6</v>
+      </c>
+      <c r="BF13">
+        <v>1.63</v>
+      </c>
+      <c r="BG13">
+        <v>1.3</v>
+      </c>
+      <c r="BH13">
+        <v>2.88</v>
+      </c>
+      <c r="BI13">
+        <v>1.64</v>
+      </c>
+      <c r="BJ13">
+        <v>2.21</v>
+      </c>
+      <c r="BK13">
+        <v>2.04</v>
+      </c>
+      <c r="BL13">
+        <v>1.76</v>
+      </c>
+      <c r="BM13">
+        <v>2.52</v>
+      </c>
+      <c r="BN13">
+        <v>1.5</v>
+      </c>
+      <c r="BO13">
+        <v>3.55</v>
+      </c>
+      <c r="BP13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7729546</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45604.5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3.2</v>
+      </c>
+      <c r="T14">
+        <v>1.39</v>
+      </c>
+      <c r="U14">
+        <v>2.93</v>
+      </c>
+      <c r="V14">
+        <v>2.96</v>
+      </c>
+      <c r="W14">
+        <v>1.38</v>
+      </c>
+      <c r="X14">
+        <v>6.7</v>
+      </c>
+      <c r="Y14">
+        <v>1.09</v>
+      </c>
+      <c r="Z14">
+        <v>2.63</v>
+      </c>
+      <c r="AA14">
+        <v>3.1</v>
+      </c>
+      <c r="AB14">
+        <v>2.5</v>
+      </c>
+      <c r="AC14">
+        <v>1.06</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14">
+        <v>1.3</v>
+      </c>
+      <c r="AF14">
+        <v>3.4</v>
+      </c>
+      <c r="AG14">
+        <v>2.1</v>
+      </c>
+      <c r="AH14">
+        <v>1.7</v>
+      </c>
+      <c r="AI14">
+        <v>1.83</v>
+      </c>
+      <c r="AJ14">
+        <v>1.83</v>
+      </c>
+      <c r="AK14">
+        <v>1.53</v>
+      </c>
+      <c r="AL14">
+        <v>1.3</v>
+      </c>
+      <c r="AM14">
+        <v>1.34</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
+      <c r="AV14">
+        <v>3</v>
+      </c>
+      <c r="AW14">
+        <v>5</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>17</v>
+      </c>
+      <c r="AZ14">
+        <v>8</v>
+      </c>
+      <c r="BA14">
+        <v>8</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>2.01</v>
+      </c>
+      <c r="BE14">
+        <v>6.7</v>
+      </c>
+      <c r="BF14">
+        <v>2.12</v>
+      </c>
+      <c r="BG14">
+        <v>1.29</v>
+      </c>
+      <c r="BH14">
+        <v>3.3</v>
+      </c>
+      <c r="BI14">
+        <v>1.48</v>
+      </c>
+      <c r="BJ14">
+        <v>2.56</v>
+      </c>
+      <c r="BK14">
+        <v>1.81</v>
+      </c>
+      <c r="BL14">
+        <v>1.99</v>
+      </c>
+      <c r="BM14">
+        <v>2.27</v>
+      </c>
+      <c r="BN14">
+        <v>1.61</v>
+      </c>
+      <c r="BO14">
+        <v>2.8</v>
+      </c>
+      <c r="BP14">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7729547</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45604.5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>4.33</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
+        <v>1.44</v>
+      </c>
+      <c r="U15">
+        <v>2.63</v>
+      </c>
+      <c r="V15">
+        <v>3.25</v>
+      </c>
+      <c r="W15">
+        <v>1.33</v>
+      </c>
+      <c r="X15">
+        <v>7.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.07</v>
+      </c>
+      <c r="Z15">
+        <v>3.4</v>
+      </c>
+      <c r="AA15">
+        <v>3.25</v>
+      </c>
+      <c r="AB15">
+        <v>1.95</v>
+      </c>
+      <c r="AC15">
+        <v>1.08</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+      <c r="AE15">
+        <v>1.42</v>
+      </c>
+      <c r="AF15">
+        <v>2.7</v>
+      </c>
+      <c r="AG15">
+        <v>2.38</v>
+      </c>
+      <c r="AH15">
+        <v>1.53</v>
+      </c>
+      <c r="AI15">
+        <v>2.2</v>
+      </c>
+      <c r="AJ15">
+        <v>1.62</v>
+      </c>
+      <c r="AK15">
+        <v>1.95</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>1.15</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>10</v>
+      </c>
+      <c r="AV15">
+        <v>5</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>17</v>
+      </c>
+      <c r="AZ15">
+        <v>10</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
+        <v>8</v>
+      </c>
+      <c r="BC15">
+        <v>14</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>1.3</v>
+      </c>
+      <c r="BH15">
+        <v>3.15</v>
+      </c>
+      <c r="BI15">
+        <v>1.57</v>
+      </c>
+      <c r="BJ15">
+        <v>2.23</v>
+      </c>
+      <c r="BK15">
+        <v>2</v>
+      </c>
+      <c r="BL15">
+        <v>1.73</v>
+      </c>
+      <c r="BM15">
+        <v>2.7</v>
+      </c>
+      <c r="BN15">
+        <v>1.41</v>
+      </c>
+      <c r="BO15">
+        <v>3.75</v>
+      </c>
+      <c r="BP15">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7729548</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45604.625</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16">
+        <v>5.5</v>
+      </c>
+      <c r="R16">
+        <v>2.05</v>
+      </c>
+      <c r="S16">
+        <v>2.3</v>
+      </c>
+      <c r="T16">
+        <v>1.42</v>
+      </c>
+      <c r="U16">
+        <v>2.79</v>
+      </c>
+      <c r="V16">
+        <v>3.13</v>
+      </c>
+      <c r="W16">
+        <v>1.35</v>
+      </c>
+      <c r="X16">
+        <v>6.9</v>
+      </c>
+      <c r="Y16">
+        <v>1.08</v>
+      </c>
+      <c r="Z16">
+        <v>5.5</v>
+      </c>
+      <c r="AA16">
+        <v>3.6</v>
+      </c>
+      <c r="AB16">
+        <v>1.53</v>
+      </c>
+      <c r="AC16">
+        <v>1.06</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16">
+        <v>1.33</v>
+      </c>
+      <c r="AF16">
+        <v>3.25</v>
+      </c>
+      <c r="AG16">
+        <v>2.05</v>
+      </c>
+      <c r="AH16">
+        <v>1.7</v>
+      </c>
+      <c r="AI16">
+        <v>2.1</v>
+      </c>
+      <c r="AJ16">
+        <v>1.67</v>
+      </c>
+      <c r="AK16">
+        <v>2.2</v>
+      </c>
+      <c r="AL16">
+        <v>1.23</v>
+      </c>
+      <c r="AM16">
+        <v>1.11</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>8</v>
+      </c>
+      <c r="AY16">
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <v>15</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>3.04</v>
+      </c>
+      <c r="BE16">
+        <v>7.9</v>
+      </c>
+      <c r="BF16">
+        <v>1.51</v>
+      </c>
+      <c r="BG16">
+        <v>1.36</v>
+      </c>
+      <c r="BH16">
+        <v>2.88</v>
+      </c>
+      <c r="BI16">
+        <v>1.65</v>
+      </c>
+      <c r="BJ16">
+        <v>2.2</v>
+      </c>
+      <c r="BK16">
+        <v>2.04</v>
+      </c>
+      <c r="BL16">
+        <v>1.75</v>
+      </c>
+      <c r="BM16">
+        <v>2.6</v>
+      </c>
+      <c r="BN16">
+        <v>1.44</v>
+      </c>
+      <c r="BO16">
+        <v>3.3</v>
+      </c>
+      <c r="BP16">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,12 +271,12 @@
     <t>ENPPI</t>
   </si>
   <si>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
     <t>Al Masry</t>
   </si>
   <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
   <si>
     <t>['34', '45+4', '46']</t>
@@ -699,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,7 +961,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1140,7 +1143,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1164,7 +1167,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1782,7 +1785,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -1988,7 +1991,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2170,7 +2173,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2194,7 +2197,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2606,7 +2609,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -2812,7 +2815,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3224,7 +3227,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3430,7 +3433,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3636,7 +3639,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>4.33</v>
@@ -3842,7 +3845,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -3998,6 +4001,624 @@
         <v>3.3</v>
       </c>
       <c r="BP16">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7729549</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17">
+        <v>2.6</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>4.75</v>
+      </c>
+      <c r="T17">
+        <v>1.53</v>
+      </c>
+      <c r="U17">
+        <v>2.45</v>
+      </c>
+      <c r="V17">
+        <v>3.4</v>
+      </c>
+      <c r="W17">
+        <v>1.29</v>
+      </c>
+      <c r="X17">
+        <v>9.1</v>
+      </c>
+      <c r="Y17">
+        <v>1.04</v>
+      </c>
+      <c r="Z17">
+        <v>1.85</v>
+      </c>
+      <c r="AA17">
+        <v>2.9</v>
+      </c>
+      <c r="AB17">
+        <v>4.2</v>
+      </c>
+      <c r="AC17">
+        <v>1.07</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>1.4</v>
+      </c>
+      <c r="AF17">
+        <v>2.75</v>
+      </c>
+      <c r="AG17">
+        <v>2.5</v>
+      </c>
+      <c r="AH17">
+        <v>1.5</v>
+      </c>
+      <c r="AI17">
+        <v>2.25</v>
+      </c>
+      <c r="AJ17">
+        <v>1.57</v>
+      </c>
+      <c r="AK17">
+        <v>1.22</v>
+      </c>
+      <c r="AL17">
+        <v>1.32</v>
+      </c>
+      <c r="AM17">
+        <v>1.67</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>6</v>
+      </c>
+      <c r="AY17">
+        <v>8</v>
+      </c>
+      <c r="AZ17">
+        <v>11</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>6</v>
+      </c>
+      <c r="BC17">
+        <v>10</v>
+      </c>
+      <c r="BD17">
+        <v>1.52</v>
+      </c>
+      <c r="BE17">
+        <v>6.6</v>
+      </c>
+      <c r="BF17">
+        <v>3.24</v>
+      </c>
+      <c r="BG17">
+        <v>1.38</v>
+      </c>
+      <c r="BH17">
+        <v>2.8</v>
+      </c>
+      <c r="BI17">
+        <v>1.68</v>
+      </c>
+      <c r="BJ17">
+        <v>2.17</v>
+      </c>
+      <c r="BK17">
+        <v>2.1</v>
+      </c>
+      <c r="BL17">
+        <v>1.72</v>
+      </c>
+      <c r="BM17">
+        <v>2.62</v>
+      </c>
+      <c r="BN17">
+        <v>1.42</v>
+      </c>
+      <c r="BO17">
+        <v>3.4</v>
+      </c>
+      <c r="BP17">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7729550</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18">
+        <v>2.2</v>
+      </c>
+      <c r="R18">
+        <v>2.05</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>1.46</v>
+      </c>
+      <c r="U18">
+        <v>2.64</v>
+      </c>
+      <c r="V18">
+        <v>3.36</v>
+      </c>
+      <c r="W18">
+        <v>1.31</v>
+      </c>
+      <c r="X18">
+        <v>7.8</v>
+      </c>
+      <c r="Y18">
+        <v>1.06</v>
+      </c>
+      <c r="Z18">
+        <v>1.57</v>
+      </c>
+      <c r="AA18">
+        <v>3.4</v>
+      </c>
+      <c r="AB18">
+        <v>5.25</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
+        <v>1.33</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <v>2.35</v>
+      </c>
+      <c r="AH18">
+        <v>1.57</v>
+      </c>
+      <c r="AI18">
+        <v>2.38</v>
+      </c>
+      <c r="AJ18">
+        <v>1.53</v>
+      </c>
+      <c r="AK18">
+        <v>1.07</v>
+      </c>
+      <c r="AL18">
+        <v>1.21</v>
+      </c>
+      <c r="AM18">
+        <v>2.42</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>2</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>5</v>
+      </c>
+      <c r="AY18">
+        <v>5</v>
+      </c>
+      <c r="AZ18">
+        <v>5</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>5</v>
+      </c>
+      <c r="BD18">
+        <v>1.35</v>
+      </c>
+      <c r="BE18">
+        <v>7.4</v>
+      </c>
+      <c r="BF18">
+        <v>4.15</v>
+      </c>
+      <c r="BG18">
+        <v>1.3</v>
+      </c>
+      <c r="BH18">
+        <v>3.2</v>
+      </c>
+      <c r="BI18">
+        <v>1.52</v>
+      </c>
+      <c r="BJ18">
+        <v>2.5</v>
+      </c>
+      <c r="BK18">
+        <v>2.25</v>
+      </c>
+      <c r="BL18">
+        <v>1.93</v>
+      </c>
+      <c r="BM18">
+        <v>2.37</v>
+      </c>
+      <c r="BN18">
+        <v>1.57</v>
+      </c>
+      <c r="BO18">
+        <v>2.9</v>
+      </c>
+      <c r="BP18">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7729551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45605.625</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19">
+        <v>2.63</v>
+      </c>
+      <c r="R19">
+        <v>2.05</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>1.45</v>
+      </c>
+      <c r="U19">
+        <v>2.69</v>
+      </c>
+      <c r="V19">
+        <v>3.28</v>
+      </c>
+      <c r="W19">
+        <v>1.32</v>
+      </c>
+      <c r="X19">
+        <v>7.8</v>
+      </c>
+      <c r="Y19">
+        <v>1.06</v>
+      </c>
+      <c r="Z19">
+        <v>1.95</v>
+      </c>
+      <c r="AA19">
+        <v>3.2</v>
+      </c>
+      <c r="AB19">
+        <v>3.8</v>
+      </c>
+      <c r="AC19">
+        <v>1.05</v>
+      </c>
+      <c r="AD19">
+        <v>8</v>
+      </c>
+      <c r="AE19">
+        <v>1.33</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>2.1</v>
+      </c>
+      <c r="AH19">
+        <v>1.67</v>
+      </c>
+      <c r="AI19">
+        <v>1.91</v>
+      </c>
+      <c r="AJ19">
+        <v>1.8</v>
+      </c>
+      <c r="AK19">
+        <v>1.23</v>
+      </c>
+      <c r="AL19">
+        <v>1.3</v>
+      </c>
+      <c r="AM19">
+        <v>1.7</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>7</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>14</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>11</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>13</v>
+      </c>
+      <c r="BD19">
+        <v>1.62</v>
+      </c>
+      <c r="BE19">
+        <v>6.45</v>
+      </c>
+      <c r="BF19">
+        <v>2.89</v>
+      </c>
+      <c r="BG19">
+        <v>1.36</v>
+      </c>
+      <c r="BH19">
+        <v>2.88</v>
+      </c>
+      <c r="BI19">
+        <v>1.64</v>
+      </c>
+      <c r="BJ19">
+        <v>2.23</v>
+      </c>
+      <c r="BK19">
+        <v>2.25</v>
+      </c>
+      <c r="BL19">
+        <v>1.76</v>
+      </c>
+      <c r="BM19">
+        <v>2.5</v>
+      </c>
+      <c r="BN19">
+        <v>1.48</v>
+      </c>
+      <c r="BO19">
+        <v>3.3</v>
+      </c>
+      <c r="BP19">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20242025.xlsx
@@ -4147,19 +4147,19 @@
         <v>2</v>
       </c>
       <c r="AV17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW17">
         <v>6</v>
       </c>
       <c r="AX17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -4350,22 +4350,22 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX18">
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA18">
         <v>4</v>
@@ -4556,19 +4556,19 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ19">
         <v>7</v>
